--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-007 - Berhasil Approval Family Tree - Jadwal Flagging.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-007 - Berhasil Approval Family Tree - Jadwal Flagging.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9706D1-BED9-4BED-9561-06BD1997D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B1462-EE12-4A8B-B984-76F05AC6F184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0277" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0017" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,9 +104,6 @@
     <t>Pemimpin Cabang</t>
   </si>
   <si>
-    <t>DGS-292</t>
-  </si>
-  <si>
     <t>Jadwal Flagging</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>sesuai dengan Jadwal/tanggal Proses Flagging</t>
+  </si>
+  <si>
+    <t>SCD0017-007</t>
   </si>
 </sst>
 </file>
@@ -547,14 +547,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12">
         <v>23320</v>
@@ -673,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="14">
         <v>20478</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="12">
         <v>23320</v>
